--- a/reportsManager/src/test/resources/report1.xlsx
+++ b/reportsManager/src/test/resources/report1.xlsx
@@ -103,13 +103,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -132,9 +138,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,7 +446,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,8 +479,8 @@
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>123456</v>
+      <c r="C2" s="2">
+        <v>881048</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -489,8 +496,8 @@
       <c r="B3">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>999999</v>
+      <c r="C3" s="2">
+        <v>881048</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -506,8 +513,8 @@
       <c r="B4">
         <v>5</v>
       </c>
-      <c r="C4">
-        <v>888888</v>
+      <c r="C4" s="2">
+        <v>9007496</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -523,8 +530,8 @@
       <c r="B5">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>777777</v>
+      <c r="C5" s="2">
+        <v>9794547</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -540,8 +547,8 @@
       <c r="B6">
         <v>7</v>
       </c>
-      <c r="C6">
-        <v>555555</v>
+      <c r="C6" s="2">
+        <v>9296036</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -557,8 +564,8 @@
       <c r="B7">
         <v>8</v>
       </c>
-      <c r="C7">
-        <v>666666</v>
+      <c r="C7" s="2">
+        <v>881048</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -574,8 +581,8 @@
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>777777</v>
+      <c r="C8" s="2">
+        <v>881048</v>
       </c>
       <c r="D8" t="s">
         <v>19</v>
@@ -591,8 +598,8 @@
       <c r="B9">
         <v>11</v>
       </c>
-      <c r="C9">
-        <v>234234</v>
+      <c r="C9" s="2">
+        <v>9007496</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -608,8 +615,8 @@
       <c r="B10">
         <v>12</v>
       </c>
-      <c r="C10">
-        <v>778887</v>
+      <c r="C10" s="2">
+        <v>9794547</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
@@ -625,8 +632,8 @@
       <c r="B11">
         <v>13</v>
       </c>
-      <c r="C11">
-        <v>32443</v>
+      <c r="C11" s="2">
+        <v>9296036</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
